--- a/generalRGBmod/Main-PCB/v2/BOM_n64rgbv2.xlsx
+++ b/generalRGBmod/Main-PCB/v2/BOM_n64rgbv2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\Git\N64RGB\generalRGBmod\Main-PCB\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Bartmann\Documents\Workspaces\Git\n64rgb\generalRGBmod\Main-PCB\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="108">
   <si>
     <t>Designator</t>
   </si>
@@ -123,9 +123,6 @@
     <t>0.1uF / 50V (10%)</t>
   </si>
   <si>
-    <t>CAT16-47R0F4LF</t>
-  </si>
-  <si>
     <t>Remaining passive components</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>CRCW0603-10K</t>
   </si>
   <si>
-    <t>CAT16-75R0F4LF</t>
-  </si>
-  <si>
     <t>1kohm (1%)</t>
   </si>
   <si>
@@ -337,13 +331,67 @@
   </si>
   <si>
     <t>Alternative to EPM570T100C5N with less Les, leave J1 open</t>
+  </si>
+  <si>
+    <t>CAT16-47R0F4LF / CAY16-47R0F4LF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Only use this if you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">don't </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have resistors at the RCP output</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">BK32164M121-T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrite Beads MULTILYR CHP </t>
+  </si>
+  <si>
+    <t>BD 120OHMS 25%</t>
+  </si>
+  <si>
+    <t>Use this if you have resistors at the RCP output</t>
+  </si>
+  <si>
+    <t>CAT16-75R0F4LF / CAY16-75R0F4LF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +538,15 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -839,7 +896,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -850,6 +907,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1175,11 +1239,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1236,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1252,7 +1314,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1262,19 +1324,19 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1284,17 +1346,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="1"/>
@@ -1302,7 +1364,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1347,7 +1409,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1359,17 +1421,17 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -1392,17 +1454,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1411,20 +1473,20 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1443,10 +1505,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1455,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1465,10 +1527,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1477,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
@@ -1487,10 +1549,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1499,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1509,10 +1571,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1521,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1531,10 +1593,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -1543,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1553,10 +1615,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -1565,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1575,10 +1637,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -1587,7 +1649,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1597,10 +1659,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1609,23 +1671,23 @@
         <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -1634,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1644,10 +1706,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -1656,7 +1718,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1666,10 +1728,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1678,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1686,168 +1748,191 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="G28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>80</v>
-      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>99</v>
+      <c r="A34" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="E40" s="3"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
+      <c r="E41" s="3"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="3"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="3"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="5"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
       <c r="G46" s="2"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
     </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1856,11 +1941,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1905,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1917,14 +2000,14 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1933,7 +2016,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1943,19 +2026,19 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1965,17 +2048,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="1"/>
@@ -2018,7 +2101,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -2030,17 +2113,17 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -2063,17 +2146,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2082,20 +2165,20 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2114,10 +2197,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2126,7 +2209,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -2136,10 +2219,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2148,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
@@ -2158,10 +2241,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2170,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -2180,10 +2263,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2192,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -2202,10 +2285,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -2214,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -2224,10 +2307,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2236,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -2246,10 +2329,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2258,23 +2341,23 @@
         <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -2283,7 +2366,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2293,10 +2376,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2305,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2315,10 +2398,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2327,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2335,167 +2418,192 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>79</v>
       </c>
-      <c r="C30">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>98</v>
+      <c r="A33" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="E39" s="3"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
+      <c r="E40" s="3"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="3"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="3"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="3"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="3"/>
       <c r="G45" s="2"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
     </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/generalRGBmod/Main-PCB/v2/BOM_n64rgbv2.xlsx
+++ b/generalRGBmod/Main-PCB/v2/BOM_n64rgbv2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Bartmann\Documents\Workspaces\Git\n64rgb\generalRGBmod\Main-PCB\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Peter\Documents\Workspaces\Git\Mirror\n64rgb\generalRGBmod\Main-PCB\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AED4F1-E691-4722-8A97-C928527E696C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxV Setup" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
   <si>
     <t>Designator</t>
   </si>
@@ -70,9 +71,6 @@
   </si>
   <si>
     <t>MPNs are only suggestions! You can use equivalent components, too.</t>
-  </si>
-  <si>
-    <t>5M570ZT100C4N</t>
   </si>
   <si>
     <t xml:space="preserve">5M240ZT100C4N </t>
@@ -381,16 +379,34 @@
     <t>BD 120OHMS 25%</t>
   </si>
   <si>
-    <t>Use this if you have resistors at the RCP output</t>
-  </si>
-  <si>
     <t>CAT16-75R0F4LF / CAY16-75R0F4LF</t>
+  </si>
+  <si>
+    <t>Flex Cable Adapter</t>
+  </si>
+  <si>
+    <t>More information under misc/RCP2Pads/README.md</t>
+  </si>
+  <si>
+    <t>RN1,RN2,RN3,RN4</t>
+  </si>
+  <si>
+    <t>Not marked on silkscreen</t>
+  </si>
+  <si>
+    <t>Use this if you have resistors at the RCP output, i.e. the flex cable adapter</t>
+  </si>
+  <si>
+    <t>5M570ZT100C5N</t>
+  </si>
+  <si>
+    <t>Close J1, Alternative part: 5M570ZT100C4N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,24 +912,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1238,181 +1246,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>80</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>79</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1421,26 +1412,26 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1448,23 +1439,23 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1473,20 +1464,20 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1495,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1503,12 +1494,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1517,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1525,12 +1516,12 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1539,20 +1530,20 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1561,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1569,12 +1560,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1583,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1591,21 +1582,21 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="7">
+        <v>87</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1613,21 +1604,21 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1635,21 +1626,21 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="7">
+        <v>83</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1657,12 +1648,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1670,33 +1661,33 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>75</v>
+      <c r="E24" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="7">
+        <v>84</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1704,21 +1695,21 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="7">
+        <v>85</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1726,12 +1717,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1739,8 +1730,8 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>67</v>
+      <c r="E27" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1748,191 +1739,225 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="B30" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>94</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="E41" s="3"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="3"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="3"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="4"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E46" s="2"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A37:G37"/>
+  <mergeCells count="2">
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1940,171 +1965,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="59.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2113,26 +2117,26 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -2140,23 +2144,23 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2165,20 +2169,20 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2187,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -2195,12 +2199,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2209,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -2217,12 +2221,12 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2231,20 +2235,20 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2253,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -2261,21 +2265,21 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="7">
+        <v>87</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -2283,21 +2287,21 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -2305,21 +2309,21 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="7">
+        <v>83</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -2327,12 +2331,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
         <v>73</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2340,33 +2344,33 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>75</v>
+      <c r="E23" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="7">
+        <v>84</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2374,21 +2378,21 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="7">
+        <v>85</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2396,12 +2400,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
         <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2409,8 +2413,8 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>67</v>
+      <c r="E26" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2418,192 +2422,226 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="B29" t="s">
         <v>105</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>94</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="E40" s="3"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="4"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E45" s="2"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A36:G36"/>
+  <mergeCells count="2">
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/generalRGBmod/Main-PCB/v2/BOM_n64rgbv2.xlsx
+++ b/generalRGBmod/Main-PCB/v2/BOM_n64rgbv2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Peter\Documents\Workspaces\Git\Mirror\n64rgb\generalRGBmod\Main-PCB\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\Git\Eigenes\n64rgb\generalRGBmod\Main-PCB\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AED4F1-E691-4722-8A97-C928527E696C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FA9FA3-96EF-4008-B902-F2DE1428C868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="0" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxV Setup" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="114">
   <si>
     <t>Designator</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>BLM18PG471SN1D</t>
-  </si>
-  <si>
-    <t>GRM31CR61A476ME15L</t>
   </si>
   <si>
     <t>Ferrit bead</t>
@@ -401,6 +398,12 @@
   </si>
   <si>
     <t>Close J1, Alternative part: 5M570ZT100C4N</t>
+  </si>
+  <si>
+    <t>Value of MPN reference differs to ideal value to allow for negative margin!</t>
+  </si>
+  <si>
+    <t>GRM188R61E106KA73D</t>
   </si>
 </sst>
 </file>
@@ -1247,20 +1250,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="59.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1283,18 +1286,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1306,12 +1309,12 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1322,55 +1325,55 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1387,23 +1390,23 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1412,17 +1415,17 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1431,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1439,23 +1442,23 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1464,20 +1467,20 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1486,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1494,12 +1497,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1508,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1516,12 +1519,12 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1530,7 +1533,7 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -1538,12 +1541,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1552,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1560,12 +1563,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1574,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1582,15 +1585,728 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A38:B38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1604,21 +2320,21 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1626,12 +2342,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1639,46 +2355,32 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
-        <v>38</v>
+      <c r="E23" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1687,7 +2389,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1695,12 +2397,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1709,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1717,12 +2419,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
         <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1731,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1739,65 +2441,65 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1805,92 +2507,93 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
@@ -1903,55 +2606,55 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" s="2"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
     </row>
   </sheetData>
@@ -1962,688 +2665,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="59.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E45" s="2"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E47" s="2"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E48" s="2"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E49" s="2"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A36:B36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>